--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\2024\ValeoMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Desktop-jqcf5kb\c\Users\user\xampp\htdocs\ValeoMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7CBDA6-0986-4800-92F8-71E899AD7204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="1" r:id="rId1"/>
-    <sheet name="LIST MENU" sheetId="2" r:id="rId2"/>
+    <sheet name="ROLE" sheetId="3" r:id="rId2"/>
+    <sheet name="LIST MENU" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>USER LIST</t>
   </si>
@@ -45,9 +47,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>(example)</t>
-  </si>
-  <si>
     <t>Prime</t>
   </si>
   <si>
@@ -145,13 +144,22 @@
   </si>
   <si>
     <t>BOM</t>
+  </si>
+  <si>
+    <t>Role ID</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Administrator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +170,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -203,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,11 +235,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,11 +523,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,19 +540,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -557,33 +576,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
+      <c r="A4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
+      <c r="A5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -594,11 +607,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3869E45-5D55-49AD-B542-67201D1E3C08}">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B9:B22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,13 +688,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,10 +702,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,10 +713,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,10 +724,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,10 +735,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,10 +746,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,10 +757,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,10 +768,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,10 +779,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,10 +790,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +801,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,10 +812,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,10 +823,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,10 +834,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,10 +845,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,10 +856,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,10 +867,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,10 +878,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,10 +889,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,10 +900,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,10 +911,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,10 +922,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Desktop-jqcf5kb\c\Users\user\xampp\htdocs\ValeoMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\2024\ValeoMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7CBDA6-0986-4800-92F8-71E899AD7204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="1" r:id="rId1"/>
-    <sheet name="ROLE" sheetId="3" r:id="rId2"/>
-    <sheet name="LIST MENU" sheetId="2" r:id="rId3"/>
+    <sheet name="LIST MENU" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>USER LIST</t>
   </si>
@@ -47,6 +45,9 @@
     <t>Type</t>
   </si>
   <si>
+    <t>(example)</t>
+  </si>
+  <si>
     <t>Prime</t>
   </si>
   <si>
@@ -144,22 +145,13 @@
   </si>
   <si>
     <t>BOM</t>
-  </si>
-  <si>
-    <t>Role ID</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Administrator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,14 +162,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -219,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,14 +219,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,11 +504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,19 +521,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -576,27 +557,33 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -607,76 +594,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3869E45-5D55-49AD-B542-67201D1E3C08}">
-  <dimension ref="A2:B8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B22" sqref="B9:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,13 +610,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,10 +624,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,10 +646,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -735,10 +657,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -746,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -757,10 +679,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,10 +690,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -779,10 +701,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -790,10 +712,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -801,10 +723,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,10 +734,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -823,10 +745,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,10 +756,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -845,10 +767,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -856,10 +778,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,10 +789,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -878,10 +800,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -889,10 +811,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,10 +822,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -911,10 +833,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -922,10 +844,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
